--- a/JDBC_TEST_INDEX_20250806_JeongHoon.xlsx
+++ b/JDBC_TEST_INDEX_20250806_JeongHoon.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94BD49E-516B-45FA-86EE-8B5DB401FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287F6EB-5B9A-493E-9D81-442CB07D9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="JDBC" sheetId="2" r:id="rId4"/>
+    <sheet name="변수" sheetId="4" r:id="rId3"/>
+    <sheet name="메소드" sheetId="5" r:id="rId4"/>
+    <sheet name="JDBC" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Application1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,22 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의존성 등록 후에 DB접속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결 변수를 리터럴로 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수를 선언후에 넣음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc-config,properties 라는 폴더에 주소와 id, pw정보를 넣고전젆송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db와의 접속을 하는 메인 메소드, 실행만 시킴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">모든 접속에 관한 메소드를 전달하는 클래스 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +152,167 @@
   </si>
   <si>
     <t>jdbcCheckup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chap04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setion02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스를 나누지 않을경우 복잡함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 쿼리문을 담음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB접속관련 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 로그인 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application에서 실행시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 정보를 리터럴로 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의존성 등록, build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 정보를 변수를 선언후에 넣어 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc-config,properties 라는 파일에 주소와 id, pw정보를 받아 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc-config.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver=com.mysql.cj.jdbc.Driver
+url=jdbc:mysql://localhost/employeedb
+user=ohgiraffers
+password=ohgiraffers
+를 작성한 파일, Application3에 연결정보를 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db와의 접속을 하는 기능을 클래스를 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getConnection() : 접속하는 메소드
+close() : 연결을 종료하는 메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB접속을 위한 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement stmt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultSet rset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리문을 저장하고 실행하는 기능의 인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select 결과집합을 받아올 용도의 인터페이스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultSet의 커서 위치를 하나 내리면서 행이 존재하면 true 존재하지 않으면 false를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getString()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rset.next()로 가지고 온 한 행의 컬럼 정보를 문자열로 전달해서 해당 컬럼이 가지고 있는 값 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db삽입, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">db 여러가지기능 합침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +336,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,8 +362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -499,7 +652,7 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -523,18 +676,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A274AC-584C-45AB-8B71-44E135AAB68D}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="22.296875" customWidth="1"/>
+    <col min="4" max="4" width="70.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -544,199 +698,195 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
       <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -744,15 +894,133 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>35</v>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -763,18 +1031,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23B788-C997-4943-BAF0-EF002104F284}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC5FE39-43A9-494B-BF1B-A8CA4BED7110}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC033A42-BA8A-4388-B1D1-D4F5BBD1B77B}">
   <dimension ref="A1"/>
   <sheetViews>
